--- a/docs/CareConnect-Subscore-Observation-1.xlsx
+++ b/docs/CareConnect-Subscore-Observation-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="549">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or code!=component.code}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -501,7 +501,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1249,41 +1249,10 @@
 </t>
   </si>
   <si>
-    <t>Observation.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.system</t>
@@ -1356,18 +1325,6 @@
   </si>
   <si>
     <t>Observation.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Observation.method.coding.system</t>
@@ -1915,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1924,7 +1881,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -7867,10 +7824,10 @@
         <v>395</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7956,7 +7913,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7964,7 +7921,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>56</v>
@@ -7976,25 +7933,29 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8036,7 +7997,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8057,10 +8018,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8071,18 +8032,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -8091,19 +8052,19 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8141,25 +8102,25 @@
         <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -8174,10 +8135,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8188,7 +8149,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8208,21 +8169,21 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8270,10 +8231,10 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>56</v>
@@ -8291,10 +8252,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8305,7 +8266,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8313,7 +8274,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>56</v>
@@ -8325,19 +8286,21 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>250</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8385,7 +8348,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8406,10 +8369,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8420,7 +8383,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8428,7 +8391,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>56</v>
@@ -8443,26 +8406,26 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>45</v>
@@ -8504,7 +8467,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8525,10 +8488,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8539,7 +8502,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8550,7 +8513,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8565,15 +8528,17 @@
         <v>120</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8621,7 +8586,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8642,10 +8607,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8656,7 +8621,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8664,7 +8629,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>56</v>
@@ -8676,20 +8641,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>241</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>243</v>
+        <v>409</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8714,13 +8681,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8738,7 +8705,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>245</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8759,10 +8726,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>247</v>
+        <v>413</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8773,7 +8740,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8781,7 +8748,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>56</v>
@@ -8793,21 +8760,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
+        <v>122</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8855,7 +8820,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8876,10 +8841,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8890,18 +8855,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8910,23 +8875,21 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8962,25 +8925,25 @@
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>262</v>
+        <v>130</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8995,10 +8958,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9009,7 +8972,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9020,7 +8983,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -9032,19 +8995,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9081,25 +9044,23 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -9114,10 +9075,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -9128,9 +9089,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9148,22 +9111,22 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>215</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>217</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>419</v>
+        <v>218</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9188,13 +9151,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9212,13 +9175,13 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -9233,10 +9196,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>422</v>
+        <v>220</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9247,7 +9210,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9362,11 +9325,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9388,14 +9351,12 @@
         <v>102</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9468,7 +9429,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9479,9 +9440,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9499,23 +9462,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>214</v>
+        <v>395</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9551,17 +9510,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9582,10 +9543,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9596,17 +9557,15 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>56</v>
@@ -9621,26 +9580,26 @@
         <v>57</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>45</v>
@@ -9658,13 +9617,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9682,13 +9641,13 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
@@ -9703,10 +9662,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9717,7 +9676,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9728,7 +9687,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9737,18 +9696,20 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9797,7 +9758,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9818,10 +9779,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9832,7 +9793,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9840,10 +9801,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9852,19 +9813,21 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>392</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>242</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9900,25 +9863,25 @@
         <v>45</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9933,10 +9896,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9947,20 +9910,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9969,19 +9930,21 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>395</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>249</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10029,13 +9992,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -10050,10 +10013,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10064,7 +10027,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10084,19 +10047,23 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10144,7 +10111,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10165,10 +10132,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10179,18 +10146,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -10199,21 +10166,23 @@
         <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10249,25 +10218,25 @@
         <v>45</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10282,10 +10251,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10296,7 +10265,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10304,10 +10273,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10319,16 +10288,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10378,10 +10347,10 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>56</v>
@@ -10396,24 +10365,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>99</v>
+        <v>435</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10436,15 +10405,17 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10493,7 +10464,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10511,24 +10482,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10536,10 +10507,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10548,29 +10519,29 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>69</v>
+        <v>447</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>225</v>
+        <v>448</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>227</v>
+        <v>450</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>228</v>
+        <v>451</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>45</v>
@@ -10612,19 +10583,19 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>230</v>
+        <v>446</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10633,10 +10604,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>231</v>
+        <v>453</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>232</v>
+        <v>454</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10647,7 +10618,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10658,7 +10629,7 @@
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10667,20 +10638,18 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10729,7 +10698,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10750,10 +10719,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10764,18 +10733,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -10784,21 +10753,21 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10846,13 +10815,13 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -10867,10 +10836,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10881,41 +10850,41 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -10963,13 +10932,13 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>253</v>
+        <v>460</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -10984,10 +10953,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10998,7 +10967,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11018,23 +10987,19 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>258</v>
+        <v>463</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11082,7 +11047,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>262</v>
+        <v>461</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11091,7 +11056,7 @@
         <v>56</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>45</v>
@@ -11103,10 +11068,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11117,7 +11082,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11137,23 +11102,19 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>266</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11201,7 +11162,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>270</v>
+        <v>468</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11210,7 +11171,7 @@
         <v>56</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>45</v>
@@ -11222,10 +11183,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>271</v>
+        <v>466</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>272</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11236,7 +11197,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11247,7 +11208,7 @@
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -11259,18 +11220,20 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>443</v>
+        <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -11294,13 +11257,13 @@
         <v>45</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
@@ -11318,7 +11281,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11336,24 +11299,24 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>449</v>
+        <v>365</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11364,7 +11327,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -11376,18 +11339,20 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>452</v>
+        <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11411,13 +11376,13 @@
         <v>45</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>45</v>
+        <v>487</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11435,13 +11400,13 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
@@ -11453,24 +11418,24 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>459</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11481,7 +11446,7 @@
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11493,19 +11458,17 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11554,19 +11517,19 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>45</v>
@@ -11575,10 +11538,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>467</v>
+        <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11589,7 +11552,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11615,10 +11578,10 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>121</v>
+        <v>495</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>122</v>
+        <v>496</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11669,7 +11632,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>123</v>
+        <v>494</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11690,10 +11653,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>124</v>
+        <v>497</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11704,11 +11667,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11724,21 +11687,23 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>499</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11786,7 +11751,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>130</v>
+        <v>498</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11798,7 +11763,7 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>45</v>
@@ -11807,10 +11772,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>124</v>
+        <v>505</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11821,40 +11786,38 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11903,13 +11866,13 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>474</v>
+        <v>123</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -11927,7 +11890,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -11938,18 +11901,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
@@ -11961,15 +11924,17 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>476</v>
+        <v>102</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12018,16 +11983,16 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>475</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>45</v>
@@ -12039,10 +12004,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>480</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>481</v>
+        <v>124</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12053,38 +12018,40 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>476</v>
+        <v>102</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>483</v>
+        <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12133,16 +12100,16 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>45</v>
@@ -12154,10 +12121,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>480</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>485</v>
+        <v>99</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12168,7 +12135,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12176,7 +12143,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>56</v>
@@ -12191,26 +12158,26 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>45</v>
@@ -12228,13 +12195,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12252,7 +12219,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12270,13 +12237,13 @@
         <v>45</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>494</v>
+        <v>99</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>365</v>
+        <v>517</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12287,7 +12254,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12295,10 +12262,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
@@ -12310,20 +12277,16 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>142</v>
+        <v>519</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>45</v>
       </c>
@@ -12347,13 +12310,13 @@
         <v>45</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>45</v>
@@ -12371,13 +12334,13 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
@@ -12389,13 +12352,13 @@
         <v>45</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12406,7 +12369,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12417,7 +12380,7 @@
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
@@ -12426,20 +12389,22 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N90" t="s" s="2">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12488,19 +12453,19 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>45</v>
@@ -12509,10 +12474,10 @@
         <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12523,7 +12488,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12549,10 +12514,10 @@
         <v>120</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>509</v>
+        <v>121</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>510</v>
+        <v>122</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12603,7 +12568,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>508</v>
+        <v>123</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12624,10 +12589,10 @@
         <v>45</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>480</v>
+        <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>511</v>
+        <v>124</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12638,11 +12603,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12658,23 +12623,21 @@
         <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>461</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>513</v>
+        <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>514</v>
+        <v>126</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
       </c>
@@ -12722,7 +12685,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>512</v>
+        <v>130</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12734,7 +12697,7 @@
         <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>45</v>
@@ -12743,10 +12706,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>519</v>
+        <v>124</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12757,38 +12720,40 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -12837,13 +12802,13 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>123</v>
+        <v>460</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>45</v>
@@ -12861,7 +12826,7 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -12872,18 +12837,18 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -12892,21 +12857,21 @@
         <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -12930,13 +12895,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -12954,13 +12919,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>130</v>
+        <v>533</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -12972,16 +12937,16 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>45</v>
+        <v>536</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>45</v>
@@ -12989,41 +12954,43 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>102</v>
+        <v>538</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>473</v>
+        <v>338</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
       </c>
@@ -13071,13 +13038,13 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -13089,24 +13056,24 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13114,7 +13081,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>56</v>
@@ -13129,26 +13096,26 @@
         <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>527</v>
+        <v>351</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>45</v>
@@ -13166,13 +13133,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13190,7 +13157,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13199,7 +13166,7 @@
         <v>56</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>45</v>
@@ -13214,7 +13181,7 @@
         <v>99</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>531</v>
+        <v>355</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13225,15 +13192,15 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>56</v>
@@ -13248,16 +13215,20 @@
         <v>45</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>533</v>
+        <v>142</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>534</v>
+        <v>358</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13281,13 +13252,13 @@
         <v>45</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>45</v>
@@ -13305,10 +13276,10 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>56</v>
@@ -13323,24 +13294,24 @@
         <v>45</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>536</v>
+        <v>365</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13360,22 +13331,22 @@
         <v>45</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13424,7 +13395,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13436,7 +13407,7 @@
         <v>45</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>45</v>
@@ -13445,962 +13416,20 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>542</v>
+        <v>453</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO106" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO106">
+  <autoFilter ref="A1:AO98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14410,7 +13439,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
